--- a/Configs.xlsx
+++ b/Configs.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="date" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="245">
   <si>
     <t xml:space="preserve">Attribute </t>
   </si>
@@ -293,9 +295,6 @@
   </si>
   <si>
     <t>The minimum date for selection. All dates, running before it can't be activated.</t>
-  </si>
-  <si>
-    <t>The maximum date for selection. All dates which comes after it cannot be selected.</t>
   </si>
   <si>
     <t>If true, then at the date, which would be less than minimum possible or more then maximum possible, navigation buttons ('forward', 'back') will be deactivated.</t>
@@ -463,6 +462,9 @@
     <t>Date Format</t>
   </si>
   <si>
+    <t>Today Button</t>
+  </si>
+  <si>
     <t>Time Format</t>
   </si>
   <si>
@@ -493,45 +495,21 @@
     <t>Minview</t>
   </si>
   <si>
-    <t>Clearbutton</t>
-  </si>
-  <si>
     <t>Startdate</t>
   </si>
   <si>
     <t>Altfielddateformat</t>
   </si>
   <si>
-    <t>Keyboardnav</t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
     <t>Offset</t>
   </si>
   <si>
-    <t>Showothermonths</t>
-  </si>
-  <si>
-    <t>Selectothermonths</t>
-  </si>
-  <si>
     <t>Movetoothermonthsonselect</t>
   </si>
   <si>
-    <t>Showotheryears</t>
-  </si>
-  <si>
-    <t>Selectotheryears</t>
-  </si>
-  <si>
-    <t>Movetootheryearsonselect</t>
-  </si>
-  <si>
-    <t>Disablenavwhenoutofrange</t>
-  </si>
-  <si>
     <t>Multipledates</t>
   </si>
   <si>
@@ -568,19 +546,273 @@
     <t>Date Time Separator</t>
   </si>
   <si>
-    <t>Weekends Array</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Minimum Hours</t>
-  </si>
-  <si>
-    <t>Maximum Hours</t>
-  </si>
-  <si>
-    <t>Show Today/Clear Button</t>
+    <t>d</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>yy</t>
+  </si>
+  <si>
+    <t>yyyy</t>
+  </si>
+  <si>
+    <t>yyyy1</t>
+  </si>
+  <si>
+    <t>yyyy2</t>
+  </si>
+  <si>
+    <t>date number</t>
+  </si>
+  <si>
+    <t>date with leading zero</t>
+  </si>
+  <si>
+    <t>short day name</t>
+  </si>
+  <si>
+    <t>full day name</t>
+  </si>
+  <si>
+    <t>month number</t>
+  </si>
+  <si>
+    <t>month number with leading zero</t>
+  </si>
+  <si>
+    <t>short month name</t>
+  </si>
+  <si>
+    <t>full month name</t>
+  </si>
+  <si>
+    <t>two digit year number</t>
+  </si>
+  <si>
+    <t>four digit year number</t>
+  </si>
+  <si>
+    <t>first year of decade, which included current year</t>
+  </si>
+  <si>
+    <t>last year of decade, which included current year</t>
+  </si>
+  <si>
+    <t>time in milliseconds</t>
+  </si>
+  <si>
+    <t>Air Date</t>
+  </si>
+  <si>
+    <t>Jquery Date</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>'...'</t>
+  </si>
+  <si>
+    <t>''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anything else </t>
+  </si>
+  <si>
+    <t>day of month (no leading zero)</t>
+  </si>
+  <si>
+    <t>day of month (two digit)</t>
+  </si>
+  <si>
+    <t>day of the year (no leading zeros)</t>
+  </si>
+  <si>
+    <t>day of the year (three digit)</t>
+  </si>
+  <si>
+    <t>day name short</t>
+  </si>
+  <si>
+    <t>day name long</t>
+  </si>
+  <si>
+    <t>month of year (no leading zero)</t>
+  </si>
+  <si>
+    <t>month of year (two digit)</t>
+  </si>
+  <si>
+    <t>month name short</t>
+  </si>
+  <si>
+    <t>month name long</t>
+  </si>
+  <si>
+    <t>year (two digit)</t>
+  </si>
+  <si>
+    <t>year (four digit)</t>
+  </si>
+  <si>
+    <t>Unix timestamp (ms since 01/01/1970)</t>
+  </si>
+  <si>
+    <t>Windows ticks (100ns since 01/01/0001)</t>
+  </si>
+  <si>
+    <t>literal text</t>
+  </si>
+  <si>
+    <t>single quote</t>
+  </si>
+  <si>
+    <t>Sunday</t>
+  </si>
+  <si>
+    <t>Monday</t>
+  </si>
+  <si>
+    <t>Tuesday</t>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>The maximum date for selection. All dates which comes after it cannot be selected.Can be an oracle supplied date function for dynamic date, or any valid date in Oracle date format.
+For Example: Use TO_DATE(Last_Day(sysdate),'DD-MM-RRRR')to dynamically set the Minimum date to the Month Start Date.
+NB: Wrap your functions in To_DATE and provide a Format Mask.</t>
+  </si>
+  <si>
+    <t>Disable Navigation whenoutofrange</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>v_options</t>
+  </si>
+  <si>
+    <t>Many</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>Clear button</t>
+  </si>
+  <si>
+    <t>Other Months</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Prev</t>
+  </si>
+  <si>
+    <t>Selecto thermonths</t>
+  </si>
+  <si>
+    <t>Weekends</t>
+  </si>
+  <si>
+    <t>Minutes Min:Max</t>
+  </si>
+  <si>
+    <t>Hours Min:Max</t>
+  </si>
+  <si>
+    <t>minmaxHours</t>
+  </si>
+  <si>
+    <t>minmaxMinutes</t>
+  </si>
+  <si>
+    <t>Showotheryears [Years' View]</t>
+  </si>
+  <si>
+    <t>Selectotheryears[Years' View]</t>
+  </si>
+  <si>
+    <t>Movetootheryearsonselect[Years' View]</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>hh</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>hours with leading zero</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>minutes with leading zero</t>
+  </si>
+  <si>
+    <t>day period - 'am' or 'pm'</t>
+  </si>
+  <si>
+    <t>day period capitalized</t>
   </si>
 </sst>
 </file>
@@ -616,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -626,6 +858,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,12 +890,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:K48" totalsRowShown="0">
-  <autoFilter ref="A2:K48"/>
-  <sortState ref="B3:K48">
-    <sortCondition ref="H2:H48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:L53" totalsRowShown="0">
+  <autoFilter ref="A2:L53"/>
+  <sortState ref="A3:L51">
+    <sortCondition ref="H2:H51"/>
   </sortState>
-  <tableColumns count="11">
+  <tableColumns count="12">
     <tableColumn id="11" name="No"/>
     <tableColumn id="1" name="Desc"/>
     <tableColumn id="2" name="jQuery Attr"/>
@@ -671,13 +906,14 @@
       <calculatedColumnFormula>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" name="Attr No"/>
+    <tableColumn id="12" name="Prev"/>
     <tableColumn id="8" name="Value List"/>
     <tableColumn id="9" name="Condition"/>
     <tableColumn id="10" name="Code" dataDxfId="0">
       <calculatedColumnFormula>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -968,33 +1204,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:L53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" customWidth="1"/>
+    <col min="2" max="2" width="33.6640625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.88671875" style="3" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -1009,7 +1246,7 @@
         <v>75</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
@@ -1018,24 +1255,27 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="K2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2"/>
@@ -1046,23 +1286,23 @@
       <c r="H3">
         <v>1</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="K3" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_date_picker_type attr := p_item.attribute_01;</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_date_picker_type apex_appl_plugins.attribute_01%type := p_item.attribute_01;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" t="s">
         <v>125</v>
-      </c>
-      <c r="C4" t="s">
-        <v>126</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
@@ -1073,18 +1313,18 @@
       <c r="H4">
         <v>2</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="K4" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_To_date_item_Name attr := p_item.attribute_02;</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J4" s="3"/>
+      <c r="L4" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_To_date_item_Name apex_appl_plugins.attribute_02%type := p_item.attribute_02;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -1103,17 +1343,17 @@
       <c r="H5">
         <v>3</v>
       </c>
-      <c r="K5" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_firstDay attr := p_item.attribute_03;</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L5" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_firstDay apex_appl_plugins.attribute_03%type := p_item.attribute_03;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>225</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -1134,17 +1374,17 @@
       <c r="H6">
         <v>4</v>
       </c>
-      <c r="K6" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_weekends attr := p_item.attribute_04;</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L6" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_weekends apex_appl_plugins.attribute_04%type := p_item.attribute_04;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1163,17 +1403,17 @@
       <c r="H7">
         <v>5</v>
       </c>
-      <c r="K7" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_minDate attr := p_item.attribute_05;</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L7" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_minDate apex_appl_plugins.attribute_05%type := p_item.attribute_05;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
         <v>29</v>
@@ -1183,7 +1423,7 @@
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="2" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
       <c r="G8" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
@@ -1192,608 +1432,617 @@
       <c r="H8">
         <v>6</v>
       </c>
-      <c r="K8" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_maxDate attr := p_item.attribute_06;</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_maxDate apex_appl_plugins.attribute_06%type := p_item.attribute_06;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.5972222222222224E-2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G9" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_minHours</v>
+        <v>v_minmaxHours</v>
       </c>
       <c r="H9">
         <v>7</v>
       </c>
-      <c r="K9" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_minHours attr := p_item.attribute_07;</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_minmaxHours apex_appl_plugins.attribute_07%type := p_item.attribute_07;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>227</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="1">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G10" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_minHours</v>
+      </c>
+      <c r="H10">
+        <v>7.1</v>
+      </c>
+      <c r="L10" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_minHours apex_appl_plugins.attribute_07%type := p_item.attribute_07;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
         <v>v_maxHours</v>
       </c>
-      <c r="H10">
+      <c r="H11">
+        <v>7.2</v>
+      </c>
+      <c r="L11" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_maxHours apex_appl_plugins.attribute_07%type := p_item.attribute_07;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>8</v>
       </c>
-      <c r="K10" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_maxHours attr := p_item.attribute_08;</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="G11" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_multipleDatesSeparator</v>
-      </c>
-      <c r="H11">
-        <v>9</v>
-      </c>
-      <c r="K11" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_multipleDatesSeparator attr := p_item.attribute_09;</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>10</v>
-      </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>226</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>229</v>
       </c>
       <c r="D12" t="s">
         <v>52</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="4">
+        <v>4.0972222222222222E-2</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_minmaxMinutes</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="L12" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_minmaxMinutes apex_appl_plugins.attribute_08%type := p_item.attribute_08;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_minMinutes</v>
+      </c>
+      <c r="H13">
+        <v>8.1</v>
+      </c>
+      <c r="L13" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_minMinutes apex_appl_plugins.attribute_08%type := p_item.attribute_08;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="1">
+        <v>59</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_maxMinutes</v>
+      </c>
+      <c r="H14">
+        <v>8.1</v>
+      </c>
+      <c r="L14" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_maxMinutes apex_appl_plugins.attribute_08%type := p_item.attribute_08;</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_multipleDatesSeparator</v>
+      </c>
+      <c r="H15">
+        <v>9</v>
+      </c>
+      <c r="L15" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_multipleDatesSeparator apex_appl_plugins.attribute_09%type := p_item.attribute_09;</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" t="str">
+      <c r="F16" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
         <v>v_dateTimeSeparator</v>
       </c>
-      <c r="H12">
+      <c r="H16">
         <v>10</v>
       </c>
-      <c r="K12" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_dateTimeSeparator attr := p_item.attribute_10;</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="L16" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_dateTimeSeparator apex_appl_plugins.attribute_10%type := p_item.attribute_10;</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G17" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_timepicker</v>
+      </c>
+      <c r="H17">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="G13" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_inline</v>
-      </c>
-      <c r="H13">
-        <v>11</v>
-      </c>
-      <c r="K13" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_inline attr := p_item.attribute_11;</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="K17" t="s">
+        <v>121</v>
+      </c>
+      <c r="L17" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_timepicker apex_appl_plugins.attribute_11%type := p_item.attribute_11;</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" t="s">
         <v>18</v>
-      </c>
-      <c r="D14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="G14" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_position</v>
-      </c>
-      <c r="H14">
-        <v>12</v>
-      </c>
-      <c r="K14" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_position attr := p_item.attribute_12;</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>156</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15"/>
-      <c r="F15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_navTitles</v>
-      </c>
-      <c r="H15">
-        <v>13</v>
-      </c>
-      <c r="K15" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_navTitles attr := p_item.attribute_13;</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="G16" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_todayClearButton</v>
-      </c>
-      <c r="H16">
-        <v>14</v>
-      </c>
-      <c r="K16" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_todayClearButton attr := p_item.attribute_14;</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G17" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_language</v>
-      </c>
-      <c r="H17">
-        <v>15</v>
-      </c>
-      <c r="K17" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_language attr := p_item.attribute_15;</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
       </c>
       <c r="D18" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G18" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_showEvent</v>
+        <v>v_position</v>
       </c>
       <c r="H18">
-        <v>100</v>
-      </c>
-      <c r="K18" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_showEvent attr := p_item.attribute_100;</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="L18" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_position apex_appl_plugins.attribute_12%type := p_item.attribute_12;</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>119</v>
+        <v>61</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G19" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_timeFormat</v>
+        <v>v_navTitles</v>
       </c>
       <c r="H19">
-        <v>100</v>
-      </c>
-      <c r="K19" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_timeFormat attr := p_item.attribute_100;</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="L19" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_navTitles apex_appl_plugins.attribute_13%type := p_item.attribute_13;</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>128</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="1"/>
+        <v>54</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="F20" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G20" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_dateFormat</v>
+        <v>v_language</v>
       </c>
       <c r="H20">
-        <v>100</v>
-      </c>
-      <c r="K20" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_dateFormat attr := p_item.attribute_100;</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I20">
+        <v>15</v>
+      </c>
+      <c r="L20" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_language apex_appl_plugins.attribute_14%type := p_item.attribute_14;</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="D21" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>104</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21" s="2"/>
       <c r="G21" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_timepicker</v>
+        <v>v_v_options</v>
       </c>
       <c r="H21">
-        <v>100</v>
-      </c>
-      <c r="J21" t="s">
-        <v>122</v>
-      </c>
-      <c r="K21" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_timepicker attr := p_item.attribute_100;</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="L21" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_v_options apex_appl_plugins.attribute_15%type := p_item.attribute_15;</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B22" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D22" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_toggleSelected</v>
+      </c>
+      <c r="H22">
+        <v>15.11</v>
+      </c>
+      <c r="L22" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_toggleSelected apex_appl_plugins.attribute_15%type := p_item.attribute_15;</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_range</v>
-      </c>
-      <c r="H22">
-        <v>100</v>
-      </c>
-      <c r="K22" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_range attr := p_item.attribute_100;</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>133</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="1">
+      <c r="F23" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_autoClose</v>
+      </c>
+      <c r="H23">
+        <v>15.12</v>
+      </c>
+      <c r="L23" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_autoClose apex_appl_plugins.attribute_15%type := p_item.attribute_15;</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="G23" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_minMinutes</v>
-      </c>
-      <c r="H23">
-        <v>100</v>
-      </c>
-      <c r="K23" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_minMinutes attr := p_item.attribute_100;</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>134</v>
-      </c>
-      <c r="C24" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="1">
-        <v>59</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>109</v>
+      <c r="F24" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="G24" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_maxMinutes</v>
+        <v>v_inline</v>
       </c>
       <c r="H24">
-        <v>100</v>
-      </c>
-      <c r="K24" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_maxMinutes attr := p_item.attribute_100;</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15.91</v>
+      </c>
+      <c r="I24">
+        <v>11</v>
+      </c>
+      <c r="L24" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_inline apex_appl_plugins.attribute_16%type := p_item.attribute_16;</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="E25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="G25" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_hoursStep</v>
+        <v>v_todayClearButton</v>
       </c>
       <c r="H25">
-        <v>100</v>
-      </c>
-      <c r="K25" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_hoursStep attr := p_item.attribute_100;</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15.2</v>
+      </c>
+      <c r="I25">
+        <v>14</v>
+      </c>
+      <c r="L25" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_todayClearButton apex_appl_plugins.attribute_15%type := p_item.attribute_15;</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_clearButton</v>
+      </c>
+      <c r="H26">
+        <v>15.3</v>
+      </c>
+      <c r="L26" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_clearButton apex_appl_plugins.attribute_15%type := p_item.attribute_15;</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>36</v>
+      </c>
+      <c r="B27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="F26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_disableNavWhenOutOfRange</v>
-      </c>
-      <c r="H26">
-        <v>100</v>
-      </c>
-      <c r="K26" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_disableNavWhenOutOfRange attr := p_item.attribute_100;</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="1" t="b">
-        <v>0</v>
-      </c>
       <c r="F27" s="2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G27" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_multipleDates</v>
+        <v>v_showOtherMonths</v>
       </c>
       <c r="H27">
-        <v>100</v>
-      </c>
-      <c r="K27" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_multipleDates attr := p_item.attribute_100;</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>15.4</v>
+      </c>
+      <c r="L27" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_showOtherMonths apex_appl_plugins.attribute_15%type := p_item.attribute_15;</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>136</v>
+        <v>224</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D28" t="s">
         <v>53</v>
@@ -1802,352 +2051,399 @@
         <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G28" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_toggleSelected</v>
-      </c>
-      <c r="K28" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_toggleSelected attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>v_selectOtherMonths</v>
+      </c>
+      <c r="H28">
+        <v>15.5</v>
+      </c>
+      <c r="L28" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_selectOtherMonths apex_appl_plugins.attribute_16%type := p_item.attribute_16;</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
+      </c>
+      <c r="E29" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G29" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_view</v>
-      </c>
-      <c r="K29" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_view attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>v_moveToOtherMonthsOnSelect</v>
+      </c>
+      <c r="H29">
+        <v>15.6</v>
+      </c>
+      <c r="L29" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_moveToOtherMonthsOnSelect apex_appl_plugins.attribute_16%type := p_item.attribute_16;</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>230</v>
       </c>
       <c r="C30" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>116</v>
+        <v>53</v>
+      </c>
+      <c r="E30" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="G30" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_minView</v>
-      </c>
-      <c r="K30" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_minView attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>v_showOtherYears</v>
+      </c>
+      <c r="H30">
+        <v>15.7</v>
+      </c>
+      <c r="L30" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_showOtherYears apex_appl_plugins.attribute_16%type := p_item.attribute_16;</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>231</v>
       </c>
       <c r="C31" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D31" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G31" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_selectOtherYears</v>
+      </c>
+      <c r="H31">
+        <v>15.8</v>
+      </c>
+      <c r="L31" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_selectOtherYears apex_appl_plugins.attribute_16%type := p_item.attribute_16;</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>41</v>
+      </c>
+      <c r="B32" t="s">
+        <v>232</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_moveToOtherYearsOnSelect</v>
+      </c>
+      <c r="H32">
+        <v>15.9</v>
+      </c>
+      <c r="L32" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_moveToOtherYearsOnSelect apex_appl_plugins.attribute_16%type := p_item.attribute_16;</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="14.3" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>34</v>
+      </c>
+      <c r="B33" t="s">
+        <v>222</v>
+      </c>
+      <c r="C33" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G33" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_keyboardNav</v>
+      </c>
+      <c r="H33">
+        <v>15.13</v>
+      </c>
+      <c r="L33" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_keyboardNav apex_appl_plugins.attribute_15%type := p_item.attribute_15;</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>53</v>
+      </c>
+      <c r="E34" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_range</v>
+      </c>
+      <c r="H34">
+        <v>99</v>
+      </c>
+      <c r="L34" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_range apex_appl_plugins.attribute_99%type := p_item.attribute_99;</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E35" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_multipleDates</v>
+      </c>
+      <c r="H35">
+        <v>99</v>
+      </c>
+      <c r="L35" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_multipleDates apex_appl_plugins.attribute_99%type := p_item.attribute_99;</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>30</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_startDate</v>
+      </c>
+      <c r="H36">
+        <v>99</v>
+      </c>
+      <c r="L36" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_startDate apex_appl_plugins.attribute_99%type := p_item.attribute_99;</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>16</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G31" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_clearButton</v>
-      </c>
-      <c r="K31" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_clearButton attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32">
+      <c r="G37" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_showEvent</v>
+      </c>
+      <c r="H37">
+        <v>100</v>
+      </c>
+      <c r="L37" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_showEvent apex_appl_plugins.attribute_100%type := p_item.attribute_100;</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>17</v>
+      </c>
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_timeFormat</v>
+      </c>
+      <c r="H38">
+        <v>100</v>
+      </c>
+      <c r="L38" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_timeFormat apex_appl_plugins.attribute_100%type := p_item.attribute_100;</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="G39" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_dateFormat</v>
+      </c>
+      <c r="H39">
+        <v>100</v>
+      </c>
+      <c r="L39" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_dateFormat apex_appl_plugins.attribute_100%type := p_item.attribute_100;</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>23</v>
+      </c>
+      <c r="B40" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G40" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_hoursStep</v>
+      </c>
+      <c r="H40">
+        <v>100</v>
+      </c>
+      <c r="L40" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_hoursStep apex_appl_plugins.attribute_100%type := p_item.attribute_100;</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>215</v>
+      </c>
+      <c r="C41" t="s">
         <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32" t="s">
-        <v>55</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_startDate</v>
-      </c>
-      <c r="K32" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_startDate attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G33" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_classes</v>
-      </c>
-      <c r="K33" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_classes attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>32</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="D34" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="G34" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_altField</v>
-      </c>
-      <c r="K34" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_altField attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>141</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="G35" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_altFieldDateFormat</v>
-      </c>
-      <c r="K35" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_altFieldDateFormat attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G36" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_keyboardNav</v>
-      </c>
-      <c r="K36" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_keyboardNav attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>35</v>
-      </c>
-      <c r="B37" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" t="s">
-        <v>19</v>
-      </c>
-      <c r="D37" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="1">
-        <v>12</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G37" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_offset</v>
-      </c>
-      <c r="K37" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_offset attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>36</v>
-      </c>
-      <c r="B38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" t="s">
-        <v>22</v>
-      </c>
-      <c r="D38" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_showOtherMonths</v>
-      </c>
-      <c r="K38" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_showOtherMonths attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" t="s">
-        <v>23</v>
-      </c>
-      <c r="D39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="G39" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_selectOtherMonths</v>
-      </c>
-      <c r="K39" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_selectOtherMonths attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>147</v>
-      </c>
-      <c r="C40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D40" t="s">
-        <v>53</v>
-      </c>
-      <c r="E40" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G40" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_moveToOtherMonthsOnSelect</v>
-      </c>
-      <c r="K40" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_moveToOtherMonthsOnSelect attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
       </c>
       <c r="D41" t="s">
         <v>53</v>
@@ -2156,211 +2452,930 @@
         <v>1</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G41" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_showOtherYears</v>
-      </c>
-      <c r="K41" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_showOtherYears attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>v_disableNavWhenOutOfRange</v>
+      </c>
+      <c r="H41">
+        <v>100</v>
+      </c>
+      <c r="L41" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_disableNavWhenOutOfRange apex_appl_plugins.attribute_100%type := p_item.attribute_100;</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
-      </c>
       <c r="D42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E42" s="1" t="b">
+        <v>52</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_monthsField</v>
+      </c>
+      <c r="H42">
+        <v>100</v>
+      </c>
+      <c r="L42" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_monthsField apex_appl_plugins.attribute_100%type := p_item.attribute_100;</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>35</v>
+      </c>
+      <c r="B43" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D43" t="s">
+        <v>56</v>
+      </c>
+      <c r="E43" s="1">
+        <v>12</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G43" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_offset</v>
+      </c>
+      <c r="H43">
+        <v>100</v>
+      </c>
+      <c r="L43" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_offset apex_appl_plugins.attribute_100%type := p_item.attribute_100;</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>46</v>
+      </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="1">
         <v>1</v>
       </c>
-      <c r="F42" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G42" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_selectOtherYears</v>
-      </c>
-      <c r="K42" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_selectOtherYears attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="F44" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G44" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_minutesStep</v>
+      </c>
+      <c r="H44">
+        <v>100</v>
+      </c>
+      <c r="L44" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_minutesStep apex_appl_plugins.attribute_100%type := p_item.attribute_100;</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="1"/>
+      <c r="F45" s="2"/>
+      <c r="G45" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_</v>
+      </c>
+      <c r="L45" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_ apex_appl_plugins.attribute_00%type := p_item.attribute_00;</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E46"/>
+      <c r="F46" s="3"/>
+      <c r="G46" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_</v>
+      </c>
+      <c r="L46" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_ apex_appl_plugins.attribute_00%type := p_item.attribute_00;</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>27</v>
       </c>
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="G43" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_moveToOtherYearsOnSelect</v>
-      </c>
-      <c r="K43" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_moveToOtherYearsOnSelect attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>153</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" t="s">
-        <v>53</v>
-      </c>
-      <c r="E44" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_autoClose</v>
-      </c>
-      <c r="K44" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_autoClose attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" t="s">
-        <v>52</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G45" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_prevHtml</v>
-      </c>
-      <c r="K45" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_prevHtml attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>44</v>
-      </c>
-      <c r="C46" t="s">
-        <v>38</v>
-      </c>
-      <c r="D46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="G46" t="str">
-        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_nextHtml</v>
-      </c>
-      <c r="K46" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_nextHtml attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>45</v>
-      </c>
       <c r="B47" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>52</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G47" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_monthsField</v>
-      </c>
-      <c r="K47" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_monthsField attr := p_item.attribute_00;</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+        <v>v_view</v>
+      </c>
+      <c r="L47" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_view apex_appl_plugins.attribute_00%type := p_item.attribute_00;</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B48" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>56</v>
-      </c>
-      <c r="E48" s="1">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G48" t="str">
         <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
-        <v>v_minutesStep</v>
-      </c>
-      <c r="K48" t="str">
-        <f>Table1[[#This Row],[Variable]]&amp;" attr := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
-        <v>v_minutesStep attr := p_item.attribute_00;</v>
+        <v>v_minView</v>
+      </c>
+      <c r="L48" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_minView apex_appl_plugins.attribute_00%type := p_item.attribute_00;</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G49" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_classes</v>
+      </c>
+      <c r="L49" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_classes apex_appl_plugins.attribute_00%type := p_item.attribute_00;</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>32</v>
+      </c>
+      <c r="C50" t="s">
+        <v>14</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G50" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_altField</v>
+      </c>
+      <c r="L50" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_altField apex_appl_plugins.attribute_00%type := p_item.attribute_00;</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>33</v>
+      </c>
+      <c r="B51" t="s">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G51" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_altFieldDateFormat</v>
+      </c>
+      <c r="L51" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_altFieldDateFormat apex_appl_plugins.attribute_00%type := p_item.attribute_00;</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>43</v>
+      </c>
+      <c r="C52" t="s">
+        <v>37</v>
+      </c>
+      <c r="D52" t="s">
+        <v>52</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G52" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_prevHtml</v>
+      </c>
+      <c r="L52" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_prevHtml apex_appl_plugins.attribute_00%type := p_item.attribute_00;</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="15.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>44</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>52</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G53" t="str">
+        <f>"v_"&amp;Table1[[#This Row],[jQuery Attr]]</f>
+        <v>v_nextHtml</v>
+      </c>
+      <c r="L53" t="str">
+        <f>Table1[[#This Row],[Variable]]&amp;" apex_appl_plugins.attribute_" &amp; TEXT(Table1[[#This Row],[Attr No]],"00")&amp;"%type := p_item.attribute_"&amp;TEXT(Table1[[#This Row],[Attr No]],"00")&amp;";"</f>
+        <v>v_nextHtml apex_appl_plugins.attribute_00%type := p_item.attribute_00;</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" t="s">
+        <v>204</v>
+      </c>
+      <c r="F3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F4" t="s">
+        <v>209</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F5" t="s">
+        <v>210</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" t="s">
+        <v>211</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" t="s">
+        <v>160</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D8" t="s">
+        <v>193</v>
+      </c>
+      <c r="F8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>167</v>
+      </c>
+      <c r="B16" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>233</v>
+      </c>
+      <c r="B21" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>234</v>
+      </c>
+      <c r="B22" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>235</v>
+      </c>
+      <c r="B23" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B24" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>237</v>
+      </c>
+      <c r="B25" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>238</v>
+      </c>
+      <c r="B26" t="s">
+        <v>244</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.95" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="37.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>"When " &amp;B2 &amp; " then v_opt(i) :='"&amp;C2&amp;"';"</f>
+        <v>When 1 then v_opt(i) :='toggleSelected';</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="str">
+        <f>"ass_opts('"&amp;B2 &amp;"') := '" &amp;C2 &amp;"' ;"</f>
+        <v>ass_opts('1') := 'toggleSelected' ;</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"ass_opts("&amp;B2 &amp;") := '" &amp;C2 &amp;"' ;"</f>
+        <v>ass_opts(1) := 'toggleSelected' ;</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f t="shared" ref="A3:A14" si="0">"When " &amp;B3 &amp; " then v_opt(i) :='"&amp;C3&amp;"';"</f>
+        <v>When 2 then v_opt(i) :='autoClose';</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" ref="D3:D14" si="1">"ass_opts('"&amp;B3 &amp;"') := '" &amp;C3 &amp;"' ;"</f>
+        <v>ass_opts('2') := 'autoClose' ;</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E13" si="2">"ass_opts("&amp;B3 &amp;") := '" &amp;C3 &amp;"' ;"</f>
+        <v>ass_opts(2) := 'autoClose' ;</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>When 3 then v_opt(i) :='inline';</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>ass_opts('3') := 'inline' ;</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="2"/>
+        <v>ass_opts(3) := 'inline' ;</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>When 4 then v_opt(i) :='todayClearButton';</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D5" t="str">
+        <f t="shared" si="1"/>
+        <v>ass_opts('4') := 'todayClearButton' ;</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="2"/>
+        <v>ass_opts(4) := 'todayClearButton' ;</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>When 5 then v_opt(i) :='clearButton';</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="str">
+        <f t="shared" si="1"/>
+        <v>ass_opts('5') := 'clearButton' ;</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="2"/>
+        <v>ass_opts(5) := 'clearButton' ;</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>When 6 then v_opt(i) :='showOtherMonths';</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="str">
+        <f t="shared" si="1"/>
+        <v>ass_opts('6') := 'showOtherMonths' ;</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="2"/>
+        <v>ass_opts(6) := 'showOtherMonths' ;</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>When 7 then v_opt(i) :='selectOtherMonths';</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="str">
+        <f t="shared" si="1"/>
+        <v>ass_opts('7') := 'selectOtherMonths' ;</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="2"/>
+        <v>ass_opts(7) := 'selectOtherMonths' ;</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>When 8 then v_opt(i) :='moveToOtherMonthsOnSelect';</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="str">
+        <f t="shared" si="1"/>
+        <v>ass_opts('8') := 'moveToOtherMonthsOnSelect' ;</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="2"/>
+        <v>ass_opts(8) := 'moveToOtherMonthsOnSelect' ;</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>When 9 then v_opt(i) :='showOtherYears';</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="str">
+        <f t="shared" si="1"/>
+        <v>ass_opts('9') := 'showOtherYears' ;</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="2"/>
+        <v>ass_opts(9) := 'showOtherYears' ;</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>When 10 then v_opt(i) :='selectOtherYears';</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="str">
+        <f t="shared" si="1"/>
+        <v>ass_opts('10') := 'selectOtherYears' ;</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="2"/>
+        <v>ass_opts(10) := 'selectOtherYears' ;</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>When 11 then v_opt(i) :='moveToOtherYearsOnSelect';</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="str">
+        <f t="shared" si="1"/>
+        <v>ass_opts('11') := 'moveToOtherYearsOnSelect' ;</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="2"/>
+        <v>ass_opts(11) := 'moveToOtherYearsOnSelect' ;</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>When 12 then v_opt(i) :='keyboardNav';</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" t="str">
+        <f t="shared" si="1"/>
+        <v>ass_opts('12') := 'keyboardNav' ;</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="2"/>
+        <v>ass_opts(12) := 'keyboardNav' ;</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>When 13 then v_opt(i) :='';</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="str">
+        <f t="shared" si="1"/>
+        <v>ass_opts('13') := '' ;</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>